--- a/tests/testcase/CommandWalletTestCase.xlsx
+++ b/tests/testcase/CommandWalletTestCase.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -793,42 +793,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"storemanGroup":"0x45a96c93ff83fd47bcdbe4e414e3d6eba2c27344"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
-  "amount": 0.01,
-  "gasPrice": 200,
-  "gas": 2000000
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  "from":"0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>"storemanGroup":"0x35a96c93ff83fd47bcdbe4e414e3d6eba2c27342"</t>
     </r>
     <r>
@@ -1055,17 +1019,6 @@
   </si>
   <si>
     <t>LockWAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "from": 1,
-  "storemanGroup": "0x35a96c93ff83fd47bcdbe4e414e3d6eba2c27342",
-  "cross": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
-  "amount": 0.01,
-  "gasPrice": 200,
-  "gas": 2000000
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1727,42 +1680,6 @@
   </si>
   <si>
     <r>
-      <t>{
-  "from": 1,
-  "storemanGroup": "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xd6c7c26d5aefc90e26e961afe1038aaf0ef72e68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-  "cross": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
-  "amount": 0.01,
-  "gasPrice": 200,
-  "gas": 2000000
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">{
   "from": 1,
   "storemanGroup": 1,
@@ -1835,17 +1752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "from": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
-  "storemanGroup": "0xd6c7c26d5aefc90e26e961afe1038aaf0ef72e68",
-  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
-  "amount": 0.01,
-  "gasPrice": 200,
-  "gas": 2000000
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">{
   "from": 1,
@@ -2086,6 +1992,100 @@
   </si>
   <si>
     <t>Wrong case: wrong password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "from":"0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"storemanGroup":"0x06daa9379cbe241a84a65b217a11b38fe3b4b063"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
+  "amount": 0.01,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "from": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
+  "storemanGroup": "0x41623962c5d44565de623d53eb677e0f300467d2",
+  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
+  "amount": 0.01,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "from": 1,
+  "storemanGroup": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x41623962c5d44565de623d53eb677e0f300467d2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+  "cross": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
+  "amount": 0.01,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "from": 1,
+  "storemanGroup": "0x06daa9379cbe241a84a65b217a11b38fe3b4b063",
+  "cross": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
+  "amount": 0.01,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3043,28 +3043,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.375" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.33203125" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5">
+    <row r="1" spans="1:14" ht="22.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3108,9 +3108,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="108">
+    <row r="2" spans="1:14" ht="115.2">
       <c r="A2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
@@ -3148,9 +3148,9 @@
       <c r="M2" s="10"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="108">
+    <row r="3" spans="1:14" ht="115.2">
       <c r="A3" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>17</v>
@@ -3188,9 +3188,9 @@
       <c r="M3" s="15"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="108">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="115.2">
       <c r="A4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>18</v>
@@ -3199,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>34</v>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
@@ -3224,13 +3224,13 @@
         <v>20</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" s="24"/>
     </row>
-    <row r="5" spans="1:14" ht="121.5">
+    <row r="5" spans="1:14" ht="129.6">
       <c r="A5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>18</v>
@@ -3268,9 +3268,9 @@
       </c>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>17</v>
@@ -3279,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>34</v>
@@ -3308,9 +3308,9 @@
       <c r="M6" s="22"/>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>18</v>
@@ -3319,13 +3319,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>59</v>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
@@ -3346,9 +3346,9 @@
       <c r="M7" s="22"/>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="121.5">
+    <row r="8" spans="1:14" ht="129.6">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>17</v>
@@ -3372,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>38</v>
@@ -3386,9 +3386,9 @@
       <c r="M8" s="22"/>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A9" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>18</v>
@@ -3397,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>34</v>
@@ -3424,9 +3424,9 @@
       <c r="M9" s="22"/>
       <c r="N9" s="24"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>18</v>
@@ -3435,7 +3435,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>34</v>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
@@ -3462,9 +3462,9 @@
       <c r="M10" s="22"/>
       <c r="N10" s="24"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>17</v>
@@ -3488,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>38</v>
@@ -3502,9 +3502,9 @@
       <c r="M11" s="22"/>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="108">
+    <row r="12" spans="1:14" ht="115.2">
       <c r="A12" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>18</v>
@@ -3513,7 +3513,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>34</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
@@ -3542,9 +3542,9 @@
       </c>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" spans="1:14" ht="108">
+    <row r="13" spans="1:14" ht="115.2">
       <c r="A13" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>18</v>
@@ -3580,9 +3580,9 @@
       <c r="M13" s="22"/>
       <c r="N13" s="24"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>18</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>34</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -3618,9 +3618,9 @@
       <c r="M14" s="22"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" ht="108">
+    <row r="15" spans="1:14" ht="115.2">
       <c r="A15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>18</v>
@@ -3629,7 +3629,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>34</v>
@@ -3656,9 +3656,9 @@
       <c r="M15" s="22"/>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="108">
+    <row r="16" spans="1:14" ht="115.2">
       <c r="A16" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>18</v>
@@ -3667,7 +3667,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>34</v>
@@ -3694,9 +3694,9 @@
       <c r="M16" s="22"/>
       <c r="N16" s="24"/>
     </row>
-    <row r="17" spans="1:14" ht="108">
+    <row r="17" spans="1:14" ht="115.2">
       <c r="A17" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>18</v>
@@ -3705,7 +3705,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>34</v>
@@ -3732,9 +3732,9 @@
       <c r="M17" s="22"/>
       <c r="N17" s="24"/>
     </row>
-    <row r="18" spans="1:14" ht="108">
+    <row r="18" spans="1:14" ht="115.2">
       <c r="A18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>18</v>
@@ -3743,7 +3743,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>34</v>
@@ -3772,9 +3772,9 @@
       </c>
       <c r="N18" s="24"/>
     </row>
-    <row r="19" spans="1:14" ht="108">
+    <row r="19" spans="1:14" ht="115.2">
       <c r="A19" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>18</v>
@@ -3783,7 +3783,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>34</v>
@@ -3810,9 +3810,9 @@
       <c r="M19" s="22"/>
       <c r="N19" s="24"/>
     </row>
-    <row r="20" spans="1:14" ht="108">
+    <row r="20" spans="1:14" ht="115.2">
       <c r="A20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>18</v>
@@ -3821,7 +3821,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>34</v>
@@ -3848,9 +3848,9 @@
       <c r="M20" s="22"/>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="1:14" ht="108">
+    <row r="21" spans="1:14" ht="115.2">
       <c r="A21" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>18</v>
@@ -3859,7 +3859,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>34</v>
@@ -3888,9 +3888,9 @@
       </c>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="108">
+    <row r="22" spans="1:14" ht="115.2">
       <c r="A22" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>18</v>
@@ -3899,7 +3899,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>34</v>
@@ -3926,9 +3926,9 @@
       <c r="M22" s="22"/>
       <c r="N22" s="24"/>
     </row>
-    <row r="23" spans="1:14" ht="121.5">
+    <row r="23" spans="1:14" ht="129.6">
       <c r="A23" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>18</v>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
@@ -3964,9 +3964,9 @@
       <c r="M23" s="22"/>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="1:14" ht="108">
+    <row r="24" spans="1:14" ht="115.2">
       <c r="A24" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>82</v>
@@ -4004,9 +4004,9 @@
       <c r="M24" s="20"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="108">
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="115.2">
       <c r="A25" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>82</v>
@@ -4015,7 +4015,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>48</v>
@@ -4037,14 +4037,14 @@
         <v>39</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="24"/>
     </row>
-    <row r="26" spans="1:14" ht="108">
+    <row r="26" spans="1:14" ht="115.2">
       <c r="A26" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>18</v>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
@@ -4080,9 +4080,9 @@
       <c r="M26" s="20"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" ht="121.5">
+    <row r="27" spans="1:14" ht="129.6">
       <c r="A27" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>18</v>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
@@ -4118,9 +4118,9 @@
       <c r="M27" s="20"/>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A28" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>18</v>
@@ -4129,7 +4129,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>52</v>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
@@ -4156,9 +4156,9 @@
       <c r="M28" s="20"/>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A29" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>17</v>
@@ -4167,7 +4167,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>52</v>
@@ -4176,16 +4176,16 @@
         <v>80</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H29" s="23">
         <v>2</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>39</v>
@@ -4196,9 +4196,9 @@
       <c r="M29" s="20"/>
       <c r="N29" s="24"/>
     </row>
-    <row r="30" spans="1:14" ht="108">
+    <row r="30" spans="1:14" ht="115.2">
       <c r="A30" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>17</v>
@@ -4207,25 +4207,25 @@
         <v>46</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H30" s="23">
         <v>2</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>39</v>
@@ -4236,9 +4236,9 @@
       <c r="M30" s="20"/>
       <c r="N30" s="24"/>
     </row>
-    <row r="31" spans="1:14" ht="108">
+    <row r="31" spans="1:14" ht="115.2">
       <c r="A31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>52</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22" t="s">
@@ -4274,9 +4274,9 @@
       <c r="M31" s="20"/>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A32" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>18</v>
@@ -4285,7 +4285,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>52</v>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22" t="s">
@@ -4312,9 +4312,9 @@
       <c r="M32" s="20"/>
       <c r="N32" s="24"/>
     </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A33" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>18</v>
@@ -4323,10 +4323,10 @@
         <v>46</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>15</v>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22" t="s">
@@ -4350,9 +4350,9 @@
       <c r="M33" s="20"/>
       <c r="N33" s="24"/>
     </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="34" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>17</v>
@@ -4376,10 +4376,10 @@
         <v>2</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>39</v>
@@ -4390,9 +4390,9 @@
       <c r="M34" s="20"/>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="108">
+    <row r="35" spans="1:14" ht="115.2">
       <c r="A35" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>18</v>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
@@ -4428,9 +4428,9 @@
       <c r="M35" s="22"/>
       <c r="N35" s="24"/>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" ht="121.5">
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A36" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>18</v>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
@@ -4466,9 +4466,9 @@
       <c r="M36" s="22"/>
       <c r="N36" s="24"/>
     </row>
-    <row r="37" spans="1:14" ht="108">
+    <row r="37" spans="1:14" ht="115.2">
       <c r="A37" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>18</v>
@@ -4477,7 +4477,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>52</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
@@ -4504,9 +4504,9 @@
       <c r="M37" s="22"/>
       <c r="N37" s="24"/>
     </row>
-    <row r="38" spans="1:14" ht="108">
+    <row r="38" spans="1:14" ht="115.2">
       <c r="A38" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>18</v>
@@ -4515,7 +4515,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>52</v>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
@@ -4542,9 +4542,9 @@
       <c r="M38" s="22"/>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" ht="108">
+    <row r="39" spans="1:14" ht="115.2">
       <c r="A39" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>18</v>
@@ -4553,7 +4553,7 @@
         <v>46</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>52</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
@@ -4580,9 +4580,9 @@
       <c r="M39" s="22"/>
       <c r="N39" s="24"/>
     </row>
-    <row r="40" spans="1:14" ht="108">
+    <row r="40" spans="1:14" ht="115.2">
       <c r="A40" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>18</v>
@@ -4591,7 +4591,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>52</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
@@ -4616,13 +4616,13 @@
         <v>20</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N40" s="24"/>
     </row>
-    <row r="41" spans="1:14" ht="108">
+    <row r="41" spans="1:14" ht="115.2">
       <c r="A41" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>18</v>
@@ -4631,7 +4631,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>52</v>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
@@ -4658,9 +4658,9 @@
       <c r="M41" s="22"/>
       <c r="N41" s="24"/>
     </row>
-    <row r="42" spans="1:14" ht="108">
+    <row r="42" spans="1:14" ht="115.2">
       <c r="A42" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>18</v>
@@ -4669,7 +4669,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>52</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
@@ -4696,9 +4696,9 @@
       <c r="M42" s="22"/>
       <c r="N42" s="24"/>
     </row>
-    <row r="43" spans="1:14" ht="108">
+    <row r="43" spans="1:14" ht="115.2">
       <c r="A43" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>18</v>
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>52</v>
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
@@ -4734,9 +4734,9 @@
       <c r="M43" s="22"/>
       <c r="N43" s="24"/>
     </row>
-    <row r="44" spans="1:14" ht="108">
+    <row r="44" spans="1:14" ht="115.2">
       <c r="A44" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>18</v>
@@ -4745,7 +4745,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>52</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
@@ -4774,9 +4774,9 @@
       </c>
       <c r="N44" s="24"/>
     </row>
-    <row r="45" spans="1:14" ht="108">
+    <row r="45" spans="1:14" ht="115.2">
       <c r="A45" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>18</v>
@@ -4785,7 +4785,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>52</v>
@@ -4800,21 +4800,21 @@
         <v>1</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
         <v>77</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="24"/>
     </row>
-    <row r="46" spans="1:14" ht="121.5">
+    <row r="46" spans="1:14" ht="129.6">
       <c r="A46" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>18</v>
@@ -4823,7 +4823,7 @@
         <v>46</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>52</v>
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J46" s="27"/>
       <c r="K46" s="27" t="s">
@@ -4886,7 +4886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4900,7 +4900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testcase/CommandWalletTestCase.xlsx
+++ b/tests/testcase/CommandWalletTestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="207">
   <si>
     <t>ID</t>
   </si>
@@ -360,42 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{
-  "from": 1,
-  "storemanGroup": 1,
-  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
-  "amount": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-  "gasPrice": 200,
-  "gas": 2000000
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal ETH-WETH whole success case with from input address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2083,6 +2047,85 @@
   "storemanGroup": "0x06daa9379cbe241a84a65b217a11b38fe3b4b063",
   "cross": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
   "amount": 0.01,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "from": 1,
+  "storemanGroup": 1,
+  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
+  "amount": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>135</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundWAN</t>
+  </si>
+  <si>
+    <t>Normal case:to case the length of the amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1023</t>
+  </si>
+  <si>
+    <t>TC2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal WETH-ETH whole success case：to case the length of the amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "from": 1,
+  "storemanGroup": 1,
+  "cross": "0x6A8299deccd420d5b6970d611AFB25Cc8e910220",
+  "amount": 0.012345678901234567,
+  "gasPrice": 200,
+  "gas": 2000000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "from": 1,
+  "storemanGroup": 1,
+  "cross": "0x1a3dd63f6efa425f92d1868921e3eac8df79747e",
+  "amount": 0.012345678901234567,
   "gasPrice": 200,
   "gas": 2000000
 }</t>
@@ -2735,7 +2778,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:N46" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="20% - 强调文字颜色 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:N50" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="20% - 强调文字颜色 3">
   <tableColumns count="14">
     <tableColumn id="1" name="ID" dataDxfId="13"/>
     <tableColumn id="2" name="CaseType" dataDxfId="12"/>
@@ -3041,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3110,7 +3153,7 @@
     </row>
     <row r="2" spans="1:14" ht="115.2">
       <c r="A2" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
@@ -3150,7 +3193,7 @@
     </row>
     <row r="3" spans="1:14" ht="115.2">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>17</v>
@@ -3174,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>28</v>
@@ -3190,7 +3233,7 @@
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="115.2">
       <c r="A4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>18</v>
@@ -3199,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>34</v>
@@ -3214,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
@@ -3224,13 +3267,13 @@
         <v>20</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="129.6">
       <c r="A5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>18</v>
@@ -3270,7 +3313,7 @@
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>17</v>
@@ -3279,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>34</v>
@@ -3294,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>38</v>
@@ -3310,7 +3353,7 @@
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>18</v>
@@ -3319,13 +3362,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>59</v>
@@ -3334,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
@@ -3348,7 +3391,7 @@
     </row>
     <row r="8" spans="1:14" ht="129.6">
       <c r="A8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>17</v>
@@ -3357,7 +3400,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>34</v>
@@ -3372,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>38</v>
@@ -3388,7 +3431,7 @@
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>18</v>
@@ -3397,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>34</v>
@@ -3412,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
@@ -3426,7 +3469,7 @@
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A10" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>18</v>
@@ -3435,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>34</v>
@@ -3450,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
@@ -3464,7 +3507,7 @@
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A11" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>17</v>
@@ -3473,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>34</v>
@@ -3484,11 +3527,11 @@
       <c r="G11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="23">
-        <v>2</v>
+      <c r="H11" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>38</v>
@@ -3504,7 +3547,7 @@
     </row>
     <row r="12" spans="1:14" ht="115.2">
       <c r="A12" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>18</v>
@@ -3513,7 +3556,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>34</v>
@@ -3528,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
@@ -3544,7 +3587,7 @@
     </row>
     <row r="13" spans="1:14" ht="115.2">
       <c r="A13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>18</v>
@@ -3582,7 +3625,7 @@
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A14" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>18</v>
@@ -3591,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>34</v>
@@ -3606,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -3620,7 +3663,7 @@
     </row>
     <row r="15" spans="1:14" ht="115.2">
       <c r="A15" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>18</v>
@@ -3629,7 +3672,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>34</v>
@@ -3644,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
@@ -3658,7 +3701,7 @@
     </row>
     <row r="16" spans="1:14" ht="115.2">
       <c r="A16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>18</v>
@@ -3667,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>34</v>
@@ -3682,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
@@ -3696,7 +3739,7 @@
     </row>
     <row r="17" spans="1:14" ht="115.2">
       <c r="A17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>18</v>
@@ -3705,7 +3748,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>34</v>
@@ -3720,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
@@ -3734,7 +3777,7 @@
     </row>
     <row r="18" spans="1:14" ht="115.2">
       <c r="A18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>18</v>
@@ -3743,7 +3786,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>34</v>
@@ -3758,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22" t="s">
@@ -3768,13 +3811,13 @@
         <v>20</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="115.2">
       <c r="A19" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>18</v>
@@ -3783,7 +3826,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>34</v>
@@ -3798,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
@@ -3812,7 +3855,7 @@
     </row>
     <row r="20" spans="1:14" ht="115.2">
       <c r="A20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>18</v>
@@ -3821,7 +3864,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>34</v>
@@ -3836,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
@@ -3850,7 +3893,7 @@
     </row>
     <row r="21" spans="1:14" ht="115.2">
       <c r="A21" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>18</v>
@@ -3859,7 +3902,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>34</v>
@@ -3874,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
@@ -3884,13 +3927,13 @@
         <v>20</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="115.2">
       <c r="A22" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>18</v>
@@ -3899,7 +3942,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>34</v>
@@ -3914,11 +3957,11 @@
         <v>1</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="22" t="s">
         <v>20</v>
@@ -3928,7 +3971,7 @@
     </row>
     <row r="23" spans="1:14" ht="129.6">
       <c r="A23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>18</v>
@@ -3937,7 +3980,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>34</v>
@@ -3952,11 +3995,11 @@
         <v>1</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>20</v>
@@ -3964,125 +4007,127 @@
       <c r="M23" s="22"/>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="1:14" ht="115.2">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="115.2">
       <c r="A24" s="9" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H24" s="23">
         <v>2</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>38</v>
+        <v>205</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="20"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="115.2">
+    <row r="25" spans="1:14" ht="115.2">
       <c r="A25" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H25" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="22"/>
+        <v>83</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="K25" s="22" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="24"/>
     </row>
-    <row r="26" spans="1:14" ht="115.2">
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="115.2">
       <c r="A26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" s="23">
         <v>1</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" ht="129.6">
+    <row r="27" spans="1:14" ht="115.2">
       <c r="A27" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>18</v>
@@ -4091,7 +4136,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>52</v>
@@ -4106,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
@@ -4118,9 +4163,9 @@
       <c r="M27" s="20"/>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="129.6">
+    <row r="28" spans="1:14" ht="129.6">
       <c r="A28" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>18</v>
@@ -4129,7 +4174,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>52</v>
@@ -4138,13 +4183,13 @@
         <v>15</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="23">
         <v>1</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
@@ -4158,47 +4203,45 @@
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A29" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H29" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="24"/>
     </row>
-    <row r="30" spans="1:14" ht="115.2">
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A30" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>17</v>
@@ -4210,22 +4253,22 @@
         <v>170</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="23">
         <v>2</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>39</v>
@@ -4238,45 +4281,47 @@
     </row>
     <row r="31" spans="1:14" ht="115.2">
       <c r="A31" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="H31" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="K31" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="129.6">
+    <row r="32" spans="1:14" ht="115.2">
       <c r="A32" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>18</v>
@@ -4285,7 +4330,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>52</v>
@@ -4294,13 +4339,13 @@
         <v>15</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="23">
         <v>1</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22" t="s">
@@ -4314,7 +4359,7 @@
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A33" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>18</v>
@@ -4323,22 +4368,22 @@
         <v>46</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="23">
         <v>1</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22" t="s">
@@ -4352,85 +4397,85 @@
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A34" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H34" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>137</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J34" s="22"/>
       <c r="K34" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M34" s="20"/>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="115.2">
+    <row r="35" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A35" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="23">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="22"/>
+        <v>197</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="K35" s="22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="M35" s="20"/>
       <c r="N35" s="24"/>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" ht="129.6">
+    <row r="36" spans="1:14" ht="115.2">
       <c r="A36" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>18</v>
@@ -4439,7 +4484,7 @@
         <v>46</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>52</v>
@@ -4448,13 +4493,13 @@
         <v>15</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H36" s="23">
         <v>1</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
@@ -4466,9 +4511,9 @@
       <c r="M36" s="22"/>
       <c r="N36" s="24"/>
     </row>
-    <row r="37" spans="1:14" ht="115.2">
+    <row r="37" spans="1:14" s="2" customFormat="1" ht="129.6">
       <c r="A37" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>18</v>
@@ -4477,7 +4522,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>52</v>
@@ -4492,11 +4537,11 @@
         <v>1</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L37" s="22" t="s">
         <v>20</v>
@@ -4506,7 +4551,7 @@
     </row>
     <row r="38" spans="1:14" ht="115.2">
       <c r="A38" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>18</v>
@@ -4515,7 +4560,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>52</v>
@@ -4524,7 +4569,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38" s="23">
         <v>1</v>
@@ -4534,7 +4579,7 @@
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L38" s="22" t="s">
         <v>20</v>
@@ -4544,7 +4589,7 @@
     </row>
     <row r="39" spans="1:14" ht="115.2">
       <c r="A39" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>18</v>
@@ -4553,7 +4598,7 @@
         <v>46</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>52</v>
@@ -4562,17 +4607,17 @@
         <v>15</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" s="23">
         <v>1</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="L39" s="22" t="s">
         <v>20</v>
@@ -4582,7 +4627,7 @@
     </row>
     <row r="40" spans="1:14" ht="115.2">
       <c r="A40" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>18</v>
@@ -4591,7 +4636,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>52</v>
@@ -4600,29 +4645,27 @@
         <v>15</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="22" t="s">
-        <v>139</v>
-      </c>
+      <c r="M40" s="22"/>
       <c r="N40" s="24"/>
     </row>
     <row r="41" spans="1:14" ht="115.2">
       <c r="A41" s="9" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>18</v>
@@ -4631,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>52</v>
@@ -4640,13 +4683,13 @@
         <v>15</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="23">
         <v>1</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
@@ -4655,12 +4698,14 @@
       <c r="L41" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="22"/>
+      <c r="M41" s="22" t="s">
+        <v>138</v>
+      </c>
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:14" ht="115.2">
       <c r="A42" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>18</v>
@@ -4669,7 +4714,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>52</v>
@@ -4678,13 +4723,13 @@
         <v>15</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" s="23">
         <v>1</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
@@ -4698,7 +4743,7 @@
     </row>
     <row r="43" spans="1:14" ht="115.2">
       <c r="A43" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>18</v>
@@ -4707,7 +4752,7 @@
         <v>46</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>52</v>
@@ -4716,13 +4761,13 @@
         <v>15</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H43" s="23">
         <v>1</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
@@ -4736,7 +4781,7 @@
     </row>
     <row r="44" spans="1:14" ht="115.2">
       <c r="A44" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>18</v>
@@ -4745,7 +4790,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>52</v>
@@ -4754,29 +4799,27 @@
         <v>15</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" s="23">
         <v>1</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="M44" s="22"/>
       <c r="N44" s="24"/>
     </row>
     <row r="45" spans="1:14" ht="115.2">
       <c r="A45" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>18</v>
@@ -4785,7 +4828,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>52</v>
@@ -4794,81 +4837,177 @@
         <v>15</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="23">
         <v>1</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="M45" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="N45" s="24"/>
     </row>
-    <row r="46" spans="1:14" ht="129.6">
+    <row r="46" spans="1:14" ht="115.2">
       <c r="A46" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="25" t="s">
+      <c r="D46" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="28">
+        <v>85</v>
+      </c>
+      <c r="H46" s="23">
         <v>1</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L46" s="27" t="s">
+      <c r="I46" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="22"/>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="1:14" ht="129.6">
+      <c r="A47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="28">
+        <v>1</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="29"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" s="2" customFormat="1" ht="115.2">
+      <c r="A48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="23">
+        <v>2</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="20"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" s="2" customFormat="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L1048576 L2:L49">
       <formula1>"none,sentHashPending, sentHashConfirming, waitingCross, waitingCrossConfirming, waitingX, sentXPending, sentXConfirming, refundFinished, waitingRevoke, sentRevokePending, sentRevokeConfirming, revokeFinished"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:H1048576 H2:H49">
       <formula1>"1,2,skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C1048576 C1:C49">
       <formula1>"ETH to WETH, WETH to ETH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B1048576 B2:B49">
       <formula1>"Sunny, Rainy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E1048576 E2:E49">
       <formula1>"LockETH, LockWAN,RefundETH,RefundWAN,RevokeETH,RevokeWAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:F1048576 F1:F49">
       <formula1>"None,LockETH,LockWAN,RefundETH,RefundWAN,RevokeETH,RevokeWAN"</formula1>
     </dataValidation>
   </dataValidations>
